--- a/Databases/Templates GoalgetterNeutral.xlsx
+++ b/Databases/Templates GoalgetterNeutral.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Syncmap\Promotie\PASS\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FC7813B-EEB6-4CF9-B428-1275E4A73D7F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA4BB69A-12CE-489C-A987-364475A1E5F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="5010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="224">
   <si>
     <t>Title (deciding goal)</t>
   </si>
@@ -33,87 +33,6 @@
     <t>Title (no goals)</t>
   </si>
   <si>
-    <t>Title (final goal focus team)</t>
-  </si>
-  <si>
-    <t>Title (focus team played away)</t>
-  </si>
-  <si>
-    <t>Title (late equalizer focus team)</t>
-  </si>
-  <si>
-    <t>Title (late equalizer other team)</t>
-  </si>
-  <si>
-    <t>General, opponent</t>
-  </si>
-  <si>
-    <t>General, attendees</t>
-  </si>
-  <si>
-    <t>General, win/tie/loss (red card other team)</t>
-  </si>
-  <si>
-    <t>General, win/tie/loss (red card focus team)</t>
-  </si>
-  <si>
-    <t>General, win/tie/loss (final score)</t>
-  </si>
-  <si>
-    <t>General, win/tie/loss (final score) (late equalizer other team)</t>
-  </si>
-  <si>
-    <t>General, win/tie/loss (final score) (final goal focus team)</t>
-  </si>
-  <si>
-    <t>General, win/tie/loss (final score) (focus team equalize after 2+ goals down)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (all purpose)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (with assist)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (two successive goals one team)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (early goal)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (equalizer)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (late equalizer)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (aansluitingstreffer)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (two+ goal difference)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (eretreffer)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (winning goal)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (winning goal with assist)</t>
-  </si>
-  <si>
-    <t>Game course, goal from penalty focus team (aansluitingstreffer)</t>
-  </si>
-  <si>
-    <t>Game course, goal from penalty focus team (eretreffer)</t>
-  </si>
-  <si>
-    <t>Game course, goal from penalty focus team (final goal)</t>
-  </si>
-  <si>
-    <t>Game course, penalty miss focus team</t>
-  </si>
-  <si>
     <t>Game statistics, twice yellow (one player)</t>
   </si>
   <si>
@@ -126,33 +45,6 @@
     <t>Game statistics, red cards (early)</t>
   </si>
   <si>
-    <t>Game statistics, red cards (focus team)</t>
-  </si>
-  <si>
-    <t>Game course, own goal focus team (all purpose)</t>
-  </si>
-  <si>
-    <t>Game course, own goal focus team (early goal)</t>
-  </si>
-  <si>
-    <t>Game course, own goal focus team (equalizer)</t>
-  </si>
-  <si>
-    <t>Game course, own goal focus team (two goal difference)</t>
-  </si>
-  <si>
-    <t>Game course, own goal focus team (two+ goal difference)</t>
-  </si>
-  <si>
-    <t>Game course, own goal focus team (lead goal)</t>
-  </si>
-  <si>
-    <t>Game course, own goal focus team (final goal)</t>
-  </si>
-  <si>
-    <t>Game course, own goal focus team (winning goal)</t>
-  </si>
-  <si>
     <t>Game statistics, yellow cards (multiple)</t>
   </si>
   <si>
@@ -165,57 +57,6 @@
     <t>Title (comeback but lost)</t>
   </si>
   <si>
-    <t>Title (focus team played home)</t>
-  </si>
-  <si>
-    <t>Title (close loss)</t>
-  </si>
-  <si>
-    <t>Title (other team player sent off)</t>
-  </si>
-  <si>
-    <t>Title (big loss)</t>
-  </si>
-  <si>
-    <t>Title (comeback other team)</t>
-  </si>
-  <si>
-    <t>Title (late loss focus team)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (lead goal)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (deciding goal)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (deciding goal with assist)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (second+ goal player)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (final goal)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (fast goal after substitution)</t>
-  </si>
-  <si>
-    <t>Title (comeback focus team)</t>
-  </si>
-  <si>
-    <t>Title (late win focus team)</t>
-  </si>
-  <si>
-    <t>Title (close win)</t>
-  </si>
-  <si>
-    <t>General, win/tie/loss (final score) (focus team comeback after 2+ goals down)</t>
-  </si>
-  <si>
-    <t>Game course, regular goal focus team (only goal)</t>
-  </si>
-  <si>
     <t>&lt;goal scorer&gt; tekende in de &lt;minute&gt;e minuut voor de enige treffer van het duel.</t>
   </si>
   <si>
@@ -288,9 +129,6 @@
     <t>&lt;home team&gt; is er &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; niet in geslaagd voor eigen publiek &lt;away team&gt; te verslaan.</t>
   </si>
   <si>
-    <t>&lt;home team&gt; heeft &lt;day&gt; thuis met &lt;final home goals&gt;-&lt;final away goals&gt; gelijkgespeeld tegen &lt;away team&gt;</t>
-  </si>
-  <si>
     <t>Title (winning team player sent off)</t>
   </si>
   <si>
@@ -304,6 +142,558 @@
   </si>
   <si>
     <t>&lt;winning team&gt; is tot een overwinning gekomen in de &lt;league&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; boekte tegen &lt;losing team&gt; een zege.</t>
+  </si>
+  <si>
+    <t>&lt;losing team&gt; boekt nederlaag tegen &lt;losing team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; heeft &lt;day&gt; een zege geboekt.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; was &lt;day&gt; voor eigen publiek met &lt;final home goals&gt;-&lt;final away goals&gt; te sterk voor &lt;losing team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; heeft &lt;day&gt; thuis gelijkgespeeld tegen &lt;away team&gt;.</t>
+  </si>
+  <si>
+    <t>De doelpunten van &lt;winning team&gt; bleken &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; voldoende voor de overwinning.</t>
+  </si>
+  <si>
+    <t>Na &lt;minute&gt; minuten wered de score via een strafschop &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut maakte &lt;goal scorer&gt; gelijk.</t>
+  </si>
+  <si>
+    <t>In een spannend duel werd het &lt;day&gt; tegen &lt;away team&gt; &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
+  </si>
+  <si>
+    <t>Game course, goal from penalty (all purpose)</t>
+  </si>
+  <si>
+    <t>Game course, goal from penalty (opening goal)</t>
+  </si>
+  <si>
+    <t>Via een strafschop van &lt;goal scorer&gt; kwam &lt;scoring team&gt; op voorsprong.</t>
+  </si>
+  <si>
+    <t>Het werd &lt;final home goals&gt;&lt;final away goals&gt; in &lt;stadium&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;deciding goal scorer&gt; redt puntje voor &lt;tieing team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tieing team&gt; sleepte een &lt;final home goals&gt;-&lt;final away goals&gt; gelijkspel uit het vuur.</t>
+  </si>
+  <si>
+    <t>&lt;deciding goal scorer&gt; helpt &lt;winning team&gt; naar zege op &lt;losing team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; boekte &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; een overwinning bij &lt;losing team&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; wint tegen &lt;losing team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; heeft een competitiezege geboekt tegen &lt;losing team&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; zegevierde met &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; klopte &lt;losing team&gt; vandaag met &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; tekende voor het enige doelpunt.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; heeft &lt;day&gt; prima zaken gedaan.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; maakte in de &lt;minute&gt;e minuut het enige doelpunt van de wedstrijd.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; klopte &lt;losing team&gt; &lt;day&gt; met &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;deciding goal scorer&gt; schiet &lt;winning team&gt; naar zege</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; besliste in de &lt;minute&gt;e minuut de wedstrijd: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; klopt &lt;losing team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; heeft met &lt;final home goals&gt;-&lt;final away goals&gt; gewonnen van &lt;losing team&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; wint van &lt;losing team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; heeft &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; met &lt;final home goals&gt;-&lt;final away goals&gt; gewonnen van &lt;losing team&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; scoorde in de &lt;minute&gt;e minuut voor &lt;scoring team&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; maakte het enige doelpunt: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; heeft &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; goede zaken gedaan.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; wist &lt;losing team&gt; met &lt;final home goals&gt;-&lt;final away goals&gt; te verslaan.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; heeft &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; van &lt;losing team&gt; gewonnen.</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; won tegen &lt;losing team&gt; met &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;losing team&gt; onderuit tegen &lt;winning team&gt;</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; heeft &lt;day&gt; een overwinning op &lt;losing team&gt; geboekt.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; heeft voor eigen publiek niet van &lt;away team&gt; kunnen winnen.</t>
+  </si>
+  <si>
+    <t>Het duel eindigde uiteindelijk in &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut kwam &lt;scoring team&gt; op &lt;home goals&gt;-&lt;away goals&gt; door een doelpunt van &lt;goal scorer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; en &lt;away team&gt; hebben &lt;day&gt; beiden een puntje gesprokkeld.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; en &lt;away team&gt; hebben &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; met &lt;final home goals&gt;-&lt;final away goals&gt; gelijkgespeeld.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; en &lt;away team&gt; hebben &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; de punten gedeeld.</t>
+  </si>
+  <si>
+    <t>In het &lt;stadium&gt; werd het &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; en &lt;away team&gt; houden elkaar in evenwicht</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; en &lt;away team&gt; hebben hun onderlinge ontmoeting &lt;day&gt;&lt;ochtend; morning|middag; afternoon|avond; evening;; daytime&gt; gelijk afgesloten.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; en &lt;away team&gt; boeken gelijkspel</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; en &lt;away team&gt; hebben de wedstrijd met een gelijkspel beëindigd.</t>
+  </si>
+  <si>
+    <t>In het &lt;stadium&gt; werd het &lt;final home goals&gt;-&lt;final away goals&gt; tegen &lt;away team&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; en &lt;away team&gt; speelden gelijk in het &lt;stadium&gt;: &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;away team&gt; speelde op bezoek bij &lt;home team&gt; met &lt;final home goals&gt;-&lt;final away goals&gt; gelijk.</t>
+  </si>
+  <si>
+    <t>De wedstrijd tussen &lt;home team&gt; en &lt;away team&gt; heeft geen winnaar opgeleverd.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; heeft aan de thuiswedstrijd tegen &lt;away team&gt; een punt overgehouden.</t>
+  </si>
+  <si>
+    <t>&lt;home team&gt; heeft voor eigen publiek &lt;away team&gt; op een gelijkspel gehouden.</t>
+  </si>
+  <si>
+    <t>Het duel in de &lt;league&gt; tussen &lt;home team&gt; en &lt;away team&gt; heeft &lt;day&gt; geen winnaar opgeleverd.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; rondde in de &lt;minute&gt;e minuut een aanval koelbloedig af: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; maakte in de &lt;minute&gt;e minuut de &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; schoot in de &lt;minute&gt;e minuut raak: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;own goal scorer&gt; werktede bal na &lt;minute&gt; minuten in eigen doel.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; schoot &lt;scoring team&gt; in de &lt;minute&gt;e minuut op voorsprong.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; opende in de &lt;minute&gt;e minuut de score namens &lt;scoring team&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; passeerde al in de &lt;minute&gt;e minuut de doelman van &lt;not scoring team&gt;: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut herstelde &lt;goal scorer&gt; de voorsprong weer.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; werkte de &lt;home goals&gt;-&lt;away goals&gt; binnen na &lt;minute&gt; minuten.</t>
+  </si>
+  <si>
+    <t>Al na &lt;minute&gt; minuten spelen was het raak; &lt;goal scorer&gt; kon afronden.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; kon afronden na voorbereidend werk van &lt;assist giver&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; bracht &lt;scoring team&gt; op slag van rust weer op gelijke hoogte: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>Na amper &lt;minute&gt; minuten spelen was het &lt;goal scorer&gt; die de &lt;home goals&gt;-&lt;away goals&gt; maakte.</t>
+  </si>
+  <si>
+    <t>Na &lt;minute&gt; minuten spelen was het &lt;goal scorer&gt; die op aangeven van &lt;assist giver&gt; de &lt;home goals&gt;-&lt;away goals&gt; maakte.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut kwam de &lt;eerste; goal 1|tweede; goal 2|derde; goal 3|vierde; goal 4|vijfde; goal 5|zesde; goal 6|zevende; goal 7|achtste; goal 8|negende; goal 9|tiende; goal 10|elfde; goal 11|twaalfde; goal 12;; number of goals&gt; van &lt;goal scorer&gt;: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>Na &lt;minute&gt; minuten was het &lt;goal scorer&gt; die doel trof: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>Door de treffer van &lt;goal scorer&gt; stond het &lt;home goals&gt;-&lt;away goals&gt;, en die stand bleef op het scorebord staan.</t>
+  </si>
+  <si>
+    <t>&lt;assist giver&gt; was de aangever op &lt;goal scorer&gt;: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>Het werd al in de &lt;minute&gt;e minuut &lt;home goals&gt;-&lt;away goals&gt; door een doelpunt van &lt;goal scorer&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut was daar de &lt;home goals&gt;-&lt;away goals&gt; door een doelpunt van &lt;goal scorer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;scoring team&gt; kwam snel tot scoren: &lt;goal scorer&gt; trof na &lt;minute&gt; minuten doel.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut tikte &lt;goal scorer&gt; de &lt;home goals&gt;-&lt;away goals&gt; binnen.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; trof in de &lt;minute&gt;e minuut doel: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut werd het &lt;home goals&gt;-&lt;away goals&gt; en wederom was het &lt;goal scorer&gt; die de goal maakte.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; tekende in de &lt;minute&gt;e minuut voor zijn &lt;eerste; goal 1|tweede; goal 2|derde; goal 3|vierde; goal 4|vijfde; goal 5|zesde; goal 6|zevende; goal 7|achtste; goal 8|negende; goal 9|tiende; goal 10|elfde; goal 11|twaalfde; goal 12;; number of goals&gt; treffer van de middag.</t>
+  </si>
+  <si>
+    <t>&lt;assist giver&gt; bediende in de &lt;minute&gt;e minuut &lt;goal scorer&gt;, die prima raak mikte: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; tikte in de &lt;minute&gt;e minuut de &lt;home goals&gt;-&lt;away goals&gt; binnen.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; tekende in de &lt;minute&gt;e minuut voor &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut moest de doelman van &lt;not scoring team&gt; zich gewonnen geven na een doelpoging van &lt;goal scorer&gt;: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;scoring team&gt; kwam in de &lt;minute&gt;e minuut terug tot &lt;home goals&gt;-&lt;away goals&gt; door een treffer van &lt;goal scorer&gt;.</t>
+  </si>
+  <si>
+    <t>De sluitpost van &lt;not scoring team&gt; werd na &lt;minute&gt; minuten geklopt door een treffer van &lt;goal scorer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; bracht &lt;scoring team&gt; in de &lt;minute&gt;e minuut terug in de wedstrijd: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; maakte in de &lt;minute&gt;e minuut de gelijkmaker voor &lt;scoring team&gt;: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;own goal scorer&gt; scoorde na &lt;minute&gt; minuten in eigen doel: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>Een eigen treffer van &lt;own goal scorer&gt; bleek beslissend te zijn: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut liet &lt;own goal scorer&gt; zijn eigen doelman kansloos: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;own goal scorer&gt; zette zijn ploeg in de &lt;minute&gt;e minuut met een eigen goal op achterstand.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut werd het &lt;home goals&gt;-&lt;away goals&gt; door een eigen doelpunt van &lt;goal scorer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;goal scorer&gt; maakte in de &lt;minute&gt;e minuut de voorsprong van &lt;not scoring team&gt; ongedaan.</t>
+  </si>
+  <si>
+    <t>Na &lt;minute&gt; minuten ging de bal op de stip en &lt;goal scorer&gt; schoot raak: &lt;home goals&gt;-&lt;away goals&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;penalty taker&gt; miste een strafschop in de &lt;minute&gt;e minuut.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut miste &lt;penalty taker&gt; nog een strafschop.</t>
+  </si>
+  <si>
+    <t>&lt;penalty taker&gt; schoot na &lt;minute&gt; minuten een gegeven strafschop niet binnen.</t>
+  </si>
+  <si>
+    <t>&lt;penalty taker&gt; hielp de gegeven strafschop in de &lt;minute&gt;e minuut om zeep.</t>
+  </si>
+  <si>
+    <t>Er werden &lt;number of yellow cards&gt; gele kaarten uitgedeeld aan de zijde van &lt;focus team&gt; voor &lt;focus team yellow card players&gt; en aan de zijde van &lt;other team&gt; voor &lt;other team yellow card players&gt;.</t>
+  </si>
+  <si>
+    <t>Er werden gele kaarten getrokken voor &lt;yellow card players&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;other team yellow card players&gt; van &lt;other team&gt; en &lt;focus team yellow card players&gt; van &lt;focus team&gt; kregen een gele prent.</t>
+  </si>
+  <si>
+    <t>&lt;yellow card players&gt; liepen tegen een gele kaart aan.</t>
+  </si>
+  <si>
+    <t>&lt;yellow card players&gt; verdwenen met geel in het boekje van de arbiter.</t>
+  </si>
+  <si>
+    <t>De scheidsrechter trok gele kaarten voor &lt;yellow card players&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;yellow card player&gt; kreeg geel.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut kreeg &lt;yellow card player&gt; een gele kaart.</t>
+  </si>
+  <si>
+    <t>&lt;yellow card player&gt; kreeg in de &lt;minute&gt;e minuut een gele prent van de scheidsrechter.</t>
+  </si>
+  <si>
+    <t>De scheidsrechter schreef alleen &lt;yellow card player&gt; in zijn boekje bij de afdeling gele kaarten.</t>
+  </si>
+  <si>
+    <t>Er werden geen kaarten uitgedeeld deze wedstrijd.</t>
+  </si>
+  <si>
+    <t>De scheidsrechter hoefde geen kaarten te trekken.</t>
+  </si>
+  <si>
+    <t>De arbiter hield zijn kaarten de hele wedstrijd op zak.</t>
+  </si>
+  <si>
+    <t>&lt;twice yellow player&gt; kreeg tweemaal geel.</t>
+  </si>
+  <si>
+    <t>&lt;twice yellow player&gt; kreeg in de &lt;minute&gt;ste minuut een tweede gele kaart.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut kreeg &lt;twice yellow player&gt; van &lt;twice yellow team&gt; zijn tweede gele kaart van de wedstrijd en mocht hij vroegtijdig gaan douchen.</t>
+  </si>
+  <si>
+    <t>Na &lt;minute&gt; minuten spelen moest &lt;twice yellow player&gt; met zijn tweede gele kaart richting de douche.</t>
+  </si>
+  <si>
+    <t>&lt;twice yellow player&gt; kreeg na &lt;minute&gt; minuten zijn tweede gele prent van arbiter &lt;referee&gt; en moest inrukken.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut kreeg &lt;twice yellow player&gt; zijn tweede gele kaart en moest daardoor het veld verlaten.</t>
+  </si>
+  <si>
+    <t>&lt;twice yellow player&gt; was in de &lt;minute&gt;e minuut na zijn tweede gele kaart uit het veld gestuurd.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut kreeg &lt;twice yellow player&gt; een tweede gele kaart.</t>
+  </si>
+  <si>
+    <t>&lt;twice yellow player&gt; pakte na &lt;minute&gt; minuten zijn tweede gele en dus rode kaart.</t>
+  </si>
+  <si>
+    <t>De scheidsrechter toonde &lt;twice yellow player&gt; zijn tweede gele kaart in de &lt;minute&gt;e minuut.</t>
+  </si>
+  <si>
+    <t>Het laatste fluitsignaal werd niet meer op het veld meegemaakt door &lt;twice yellow player&gt;, die in de &lt;minute&gt;e minuut zijn tweede geel ontving van de arbiter.</t>
+  </si>
+  <si>
+    <t>&lt;twice yellow player&gt; werd in de &lt;minute&gt; minuut na zijn tweede gele kaart van het veld gestuurd door de scheidsrechter.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut ontving &lt;twice yellow player&gt; zijn tweede gele kaart en moest van het veld af.</t>
+  </si>
+  <si>
+    <t>&lt;twice yellow players&gt; kregen na twee keer geel ook nog een rode kaart.</t>
+  </si>
+  <si>
+    <t>&lt;twice yellow players&gt; kregen twee keer geel en mochten eerder gaan douchen.</t>
+  </si>
+  <si>
+    <t>Na een overtreding kreeg &lt;red player&gt; rood.</t>
+  </si>
+  <si>
+    <t>Na &lt;minute&gt; minuten kreeg &lt;red player&gt; rood.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt;e minuut kon &lt;red player&gt; van het veld af met een rode kaart.</t>
+  </si>
+  <si>
+    <t>&lt;red player&gt; kreeg een rode kaart van arbiter &lt;referee&gt;.</t>
+  </si>
+  <si>
+    <t>In de &lt;minute&gt; minuut kreeg &lt;red player&gt; de rode kaart.</t>
+  </si>
+  <si>
+    <t>&lt;red player&gt; mocht na &lt;minute&gt; minuten met rood vertrekken.</t>
+  </si>
+  <si>
+    <t>De scheidsrechter gaf &lt;red player&gt; van &lt;red team&gt; een rode kaart.</t>
+  </si>
+  <si>
+    <t>De scheidsrechter stuurde &lt;red player&gt; met rood naar de kant.</t>
+  </si>
+  <si>
+    <t>&lt;red team&gt; kreeg in de &lt;minute&gt;e minuut een directe rode kaart van de scheidsrechter.</t>
+  </si>
+  <si>
+    <t>De scheidsrechter trok na &lt;minute&gt; minuten een directe rode kaart voor &lt;red player&gt;.</t>
+  </si>
+  <si>
+    <t>De scheidsrechter toonde &lt;red player&gt; rood.</t>
+  </si>
+  <si>
+    <t>Title (losing team player sent off)</t>
+  </si>
+  <si>
+    <t>Title (late equalizer)</t>
+  </si>
+  <si>
+    <t>Title (late win/loss)</t>
+  </si>
+  <si>
+    <t>Title (comeback)</t>
+  </si>
+  <si>
+    <t>Title (close win/loss)</t>
+  </si>
+  <si>
+    <t>Title (big win/loss)</t>
+  </si>
+  <si>
+    <t>General, win/tie/loss (red card)</t>
+  </si>
+  <si>
+    <t>General, win/tie/loss (final score) (late equalizer)</t>
+  </si>
+  <si>
+    <t>General, win/tie/loss (final score) (comeback after 2+ goals down)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (all purpose)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (with assist)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (two successive goals one team)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (early goal)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (lead goal)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (equalizer)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (late equalizer)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (aansluitingstreffer)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (two+ goal difference)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (eretreffer)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (winning goal)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (only goal)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (winning goal with assist)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (deciding goal)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (deciding goal with assist)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (second+ goal player)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (final goal)</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (fast goal after substitution)</t>
+  </si>
+  <si>
+    <t>Game course, own goal (all purpose)</t>
+  </si>
+  <si>
+    <t>Game course, own goal (early goal)</t>
+  </si>
+  <si>
+    <t>Game course, own goal (equalizer)</t>
+  </si>
+  <si>
+    <t>Game course, own goal (two goal difference)</t>
+  </si>
+  <si>
+    <t>Game course, own goal (two+ goal difference)</t>
+  </si>
+  <si>
+    <t>Game course, own goal (lead goal)</t>
+  </si>
+  <si>
+    <t>Game course, own goal (final goal)</t>
+  </si>
+  <si>
+    <t>Game course, own goal (winning goal)</t>
+  </si>
+  <si>
+    <t>Game course, goal from penalty (eretreffer)</t>
+  </si>
+  <si>
+    <t>Game course, goal from penalty (final goal)</t>
+  </si>
+  <si>
+    <t>Game course, penalty miss (all purpose)</t>
+  </si>
+  <si>
+    <t>General, win/tie/loss (final score) (win)</t>
+  </si>
+  <si>
+    <t>General, win/tie/loss (final score) (tie)</t>
+  </si>
+  <si>
+    <t>&lt;winning team&gt; versloeg in het &lt;stadium&gt; &lt;losing team&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;not scoring team&gt; kwam in de &lt;minute&gt;e minuut op gelijke hoogte door een eigen doelpunt van &lt;own goal scorer&gt;.</t>
+  </si>
+  <si>
+    <t>Game course, regular goal (two goal difference)</t>
+  </si>
+  <si>
+    <t>Na de &lt;home goals&gt;-&lt;away goals&gt; van &lt;goal scorer&gt;, in de &lt;minute&gt;e minuut, keerde de spanning in de wedstrijd weer helemaal terug.</t>
   </si>
 </sst>
 </file>
@@ -703,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BS18"/>
+  <dimension ref="A1:BI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,22 +1106,20 @@
     <col min="7" max="8" width="130" customWidth="1"/>
     <col min="9" max="9" width="130" style="4" customWidth="1"/>
     <col min="10" max="10" width="130" customWidth="1"/>
-    <col min="11" max="12" width="130" style="4" customWidth="1"/>
-    <col min="13" max="14" width="130" customWidth="1"/>
-    <col min="15" max="16" width="130" style="4" customWidth="1"/>
-    <col min="17" max="19" width="130" customWidth="1"/>
-    <col min="20" max="22" width="130" style="4" customWidth="1"/>
-    <col min="23" max="26" width="130" customWidth="1"/>
-    <col min="27" max="27" width="130" style="4" customWidth="1"/>
-    <col min="28" max="71" width="130" customWidth="1"/>
+    <col min="11" max="11" width="130" style="4" customWidth="1"/>
+    <col min="12" max="13" width="130" customWidth="1"/>
+    <col min="14" max="15" width="130" style="4" customWidth="1"/>
+    <col min="16" max="17" width="130" customWidth="1"/>
+    <col min="18" max="18" width="130" style="4" customWidth="1"/>
+    <col min="19" max="61" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -740,563 +1128,854 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="BG1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="BH1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="4" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="Y2" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>126</v>
+      </c>
       <c r="AH2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>167</v>
       </c>
       <c r="BH2" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="4" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="L3"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="Z3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" t="s">
-        <v>67</v>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>168</v>
       </c>
       <c r="BH3" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" t="s">
-        <v>68</v>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>155</v>
       </c>
       <c r="BH4" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="J5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" t="s">
-        <v>69</v>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>140</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="J7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T8" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="J9" s="2"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
+      <c r="P9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="J10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="J12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
+      <c r="P12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+      <c r="R13" s="5"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
+      <c r="R14" s="5"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
+      <c r="R15" s="5"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="E16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
+      <c r="R16" s="5"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="17" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="J17" s="2"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
+      <c r="R17" s="5"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="18" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
+      <c r="R18" s="5"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="W19" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Databases/Templates GoalgetterNeutral.xlsx
+++ b/Databases/Templates GoalgetterNeutral.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Syncmap\Promotie\PASS\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Syncmap\Promotie\PASS\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DA4BB69A-12CE-489C-A987-364475A1E5F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7167DAEA-78FB-44F0-B459-D9C29AF5A90F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="5010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
   <si>
     <t>Title (deciding goal)</t>
   </si>
@@ -694,13 +694,16 @@
   </si>
   <si>
     <t>Na de &lt;home goals&gt;-&lt;away goals&gt; van &lt;goal scorer&gt;, in de &lt;minute&gt;e minuut, keerde de spanning in de wedstrijd weer helemaal terug.</t>
+  </si>
+  <si>
+    <t>Title (tie and goals)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,7 +759,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,7 +775,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1093,887 +1096,890 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI19"/>
+  <dimension ref="A1:BJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="130" customWidth="1"/>
-    <col min="6" max="6" width="130" style="4" customWidth="1"/>
-    <col min="7" max="8" width="130" customWidth="1"/>
-    <col min="9" max="9" width="130" style="4" customWidth="1"/>
-    <col min="10" max="10" width="130" customWidth="1"/>
-    <col min="11" max="11" width="130" style="4" customWidth="1"/>
-    <col min="12" max="13" width="130" customWidth="1"/>
-    <col min="14" max="15" width="130" style="4" customWidth="1"/>
-    <col min="16" max="17" width="130" customWidth="1"/>
-    <col min="18" max="18" width="130" style="4" customWidth="1"/>
-    <col min="19" max="61" width="130" customWidth="1"/>
+    <col min="1" max="6" width="130" customWidth="1"/>
+    <col min="7" max="7" width="130" style="4" customWidth="1"/>
+    <col min="8" max="9" width="130" customWidth="1"/>
+    <col min="10" max="10" width="130" style="4" customWidth="1"/>
+    <col min="11" max="11" width="130" customWidth="1"/>
+    <col min="12" max="12" width="130" style="4" customWidth="1"/>
+    <col min="13" max="14" width="130" customWidth="1"/>
+    <col min="15" max="16" width="130" style="4" customWidth="1"/>
+    <col min="17" max="18" width="130" customWidth="1"/>
+    <col min="19" max="19" width="130" style="4" customWidth="1"/>
+    <col min="20" max="62" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="L2" s="4"/>
+      <c r="K2" s="2"/>
       <c r="M2" s="4"/>
-      <c r="P2" t="s">
+      <c r="N2" s="4"/>
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" t="s">
+      <c r="W2" s="3"/>
+      <c r="X2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>103</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>101</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>126</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>111</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>113</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>100</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>221</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>133</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>131</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>51</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>137</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>141</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>147</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>151</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>154</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>167</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="P3" t="s">
+      <c r="N3" s="2"/>
+      <c r="Q3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" t="s">
         <v>52</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" t="s">
+      <c r="W3" s="3"/>
+      <c r="X3" t="s">
         <v>14</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>107</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>106</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>104</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>223</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>61</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>120</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>130</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>18</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>138</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>142</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>149</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>152</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>162</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>168</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="P4" t="s">
+      <c r="N4" s="2"/>
+      <c r="Q4" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" t="s">
         <v>59</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" t="s">
         <v>15</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>110</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>108</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>128</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>63</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>121</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>132</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>19</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>139</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>145</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>148</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>153</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>155</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62">
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="P5" t="s">
+      <c r="N5" s="2"/>
+      <c r="Q5" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>82</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" t="s">
+      <c r="S5" s="5"/>
+      <c r="T5" t="s">
         <v>60</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>80</v>
       </c>
-      <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" t="s">
         <v>16</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>114</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>115</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>129</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>72</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>134</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>46</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>140</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>143</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>150</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>163</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="P6" t="s">
+      <c r="N6" s="2"/>
+      <c r="Q6" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>84</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" t="s">
+      <c r="S6" s="5"/>
+      <c r="T6" t="s">
         <v>64</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" t="s">
+      <c r="W6" s="3"/>
+      <c r="X6" t="s">
         <v>71</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>122</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>117</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>135</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>136</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>146</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>156</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62">
       <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="P7" t="s">
+      <c r="N7" s="2"/>
+      <c r="Q7" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" t="s">
+      <c r="S7" s="5"/>
+      <c r="T7" t="s">
         <v>68</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>85</v>
       </c>
-      <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" t="s">
+      <c r="W7" s="3"/>
+      <c r="X7" t="s">
         <v>81</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>144</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>164</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:62">
+      <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="P8" t="s">
+      <c r="N8" s="2"/>
+      <c r="Q8" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" t="s">
+      <c r="S8" s="5"/>
+      <c r="T8" t="s">
         <v>70</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>90</v>
       </c>
-      <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" t="s">
+      <c r="W8" s="3"/>
+      <c r="X8" t="s">
         <v>97</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>165</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:62">
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="P9" t="s">
+      <c r="N9" s="2"/>
+      <c r="Q9" t="s">
         <v>220</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" t="s">
+      <c r="S9" s="5"/>
+      <c r="T9" t="s">
         <v>74</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" t="s">
+      <c r="W9" s="3"/>
+      <c r="X9" t="s">
         <v>98</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>166</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:62">
+      <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="P10" t="s">
+      <c r="N10" s="2"/>
+      <c r="Q10" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>94</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" t="s">
+      <c r="S10" s="5"/>
+      <c r="T10" t="s">
         <v>76</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>92</v>
       </c>
-      <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" t="s">
+      <c r="W10" s="3"/>
+      <c r="X10" t="s">
         <v>99</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>157</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
+    <row r="11" spans="1:62">
+      <c r="F11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="P11" t="s">
+      <c r="N11" s="2"/>
+      <c r="Q11" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="5"/>
-      <c r="U11" s="3"/>
+      <c r="S11" s="5"/>
       <c r="V11" s="3"/>
-      <c r="W11" t="s">
+      <c r="W11" s="3"/>
+      <c r="X11" t="s">
         <v>105</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11" t="s">
         <v>158</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:62">
+      <c r="F12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="P12" t="s">
+      <c r="N12" s="2"/>
+      <c r="Q12" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>96</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="U12" s="3"/>
+      <c r="S12" s="5"/>
       <c r="V12" s="3"/>
-      <c r="W12" t="s">
+      <c r="W12" s="3"/>
+      <c r="X12" t="s">
         <v>112</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>159</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="G13" s="2"/>
+    <row r="13" spans="1:62">
+      <c r="F13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="R13" s="5"/>
-      <c r="U13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="S13" s="5"/>
       <c r="V13" s="3"/>
-      <c r="W13" t="s">
+      <c r="W13" s="3"/>
+      <c r="X13" t="s">
         <v>116</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
+    <row r="14" spans="1:62">
+      <c r="F14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="R14" s="5"/>
-      <c r="U14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="S14" s="5"/>
       <c r="V14" s="3"/>
-      <c r="W14" t="s">
+      <c r="W14" s="3"/>
+      <c r="X14" t="s">
         <v>118</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BG14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
+    <row r="15" spans="1:62">
+      <c r="F15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="R15" s="5"/>
-      <c r="U15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="S15" s="5"/>
       <c r="V15" s="3"/>
-      <c r="W15" t="s">
+      <c r="W15" s="3"/>
+      <c r="X15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
+    <row r="16" spans="1:62">
+      <c r="F16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="R16" s="5"/>
-      <c r="U16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="S16" s="5"/>
       <c r="V16" s="3"/>
-      <c r="W16" t="s">
+      <c r="W16" s="3"/>
+      <c r="X16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
+    <row r="17" spans="6:24">
+      <c r="F17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="R17" s="5"/>
-      <c r="U17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="S17" s="5"/>
       <c r="V17" s="3"/>
-      <c r="W17" t="s">
+      <c r="W17" s="3"/>
+      <c r="X17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="6:24">
+      <c r="F18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="R18" s="5"/>
-      <c r="U18" s="3"/>
+      <c r="N18" s="2"/>
+      <c r="S18" s="5"/>
       <c r="V18" s="3"/>
-      <c r="W18" t="s">
+      <c r="W18" s="3"/>
+      <c r="X18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="W19" t="s">
+    <row r="19" spans="6:24">
+      <c r="X19" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1990,9 +1996,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -2008,9 +2014,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1"/>
     </row>
   </sheetData>

--- a/Databases/Templates GoalgetterNeutral.xlsx
+++ b/Databases/Templates GoalgetterNeutral.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10412"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Syncmap\Promotie\PASS\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzo/Projects/PASS/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7167DAEA-78FB-44F0-B459-D9C29AF5A90F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9234F727-201E-B646-85F2-300ABEF6E951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="5010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
   <si>
     <t>Title (deciding goal)</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Via een strafschop van &lt;goal scorer&gt; kwam &lt;scoring team&gt; op voorsprong.</t>
   </si>
   <si>
-    <t>Het werd &lt;final home goals&gt;&lt;final away goals&gt; in &lt;stadium&gt;.</t>
-  </si>
-  <si>
     <t>&lt;deciding goal scorer&gt; redt puntje voor &lt;tieing team&gt;</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>&lt;winning team&gt; zegevierde met &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
   </si>
   <si>
-    <t>&lt;winning team&gt; klopte &lt;losing team&gt; vandaag met &lt;final home goals&gt;-&lt;final away goals&gt;.</t>
-  </si>
-  <si>
     <t>&lt;goal scorer&gt; tekende voor het enige doelpunt.</t>
   </si>
   <si>
@@ -697,13 +691,16 @@
   </si>
   <si>
     <t>Title (tie and goals)</t>
+  </si>
+  <si>
+    <t>Het werd &lt;final home goals&gt;-&lt;final away goals&gt; in &lt;stadium&gt;.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,7 +756,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -775,7 +772,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1098,11 +1095,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="130" customWidth="1"/>
     <col min="7" max="7" width="130" style="4" customWidth="1"/>
@@ -1117,12 +1114,12 @@
     <col min="20" max="62" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>20</v>
@@ -1146,25 +1143,25 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>28</v>
@@ -1173,100 +1170,100 @@
         <v>29</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="AY1" s="3" t="s">
         <v>49</v>
@@ -1275,13 +1272,13 @@
         <v>50</v>
       </c>
       <c r="BA1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC1" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="BD1" s="3" t="s">
         <v>7</v>
@@ -1305,12 +1302,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1348,40 +1345,40 @@
         <v>13</v>
       </c>
       <c r="AB2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AC2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AD2" t="s">
         <v>47</v>
       </c>
       <c r="AF2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AJ2" t="s">
         <v>11</v>
       </c>
       <c r="AN2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO2" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" t="s">
-        <v>113</v>
-      </c>
       <c r="AQ2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AS2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AV2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AX2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AY2" t="s">
         <v>17</v>
@@ -1390,28 +1387,28 @@
         <v>51</v>
       </c>
       <c r="BC2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BD2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BE2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BF2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BG2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BH2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI2" t="s">
         <v>167</v>
       </c>
-      <c r="BI2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1437,10 +1434,10 @@
       </c>
       <c r="S3" s="5"/>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1448,55 +1445,55 @@
         <v>14</v>
       </c>
       <c r="Y3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AC3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" t="s">
         <v>102</v>
       </c>
-      <c r="AD3" t="s">
-        <v>104</v>
-      </c>
       <c r="AF3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AJ3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AN3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AQ3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AY3" t="s">
         <v>18</v>
       </c>
       <c r="BC3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BD3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BE3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BF3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BG3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BH3" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI3" t="s">
         <v>168</v>
       </c>
-      <c r="BI3" t="s">
-        <v>170</v>
-      </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1515,14 +1512,14 @@
         <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1530,54 +1527,54 @@
         <v>15</v>
       </c>
       <c r="Y4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AB4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AD4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AJ4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AN4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AQ4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AY4" t="s">
         <v>19</v>
       </c>
       <c r="BC4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BD4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BE4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BF4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG4" t="s">
         <v>153</v>
       </c>
-      <c r="BG4" t="s">
-        <v>155</v>
-      </c>
       <c r="BI4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2"/>
       <c r="H5" s="2"/>
@@ -1589,14 +1586,14 @@
         <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1604,45 +1601,45 @@
         <v>16</v>
       </c>
       <c r="Y5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AB5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AJ5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AQ5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AY5" t="s">
         <v>46</v>
       </c>
       <c r="BC5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BD5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BE5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BG5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BI5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6" s="2"/>
@@ -1651,51 +1648,51 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AY6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BD6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BG6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BI6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
@@ -1704,36 +1701,36 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" t="s">
         <v>68</v>
       </c>
       <c r="U7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BD7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BG7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BI7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2"/>
       <c r="H8" s="2"/>
@@ -1742,33 +1739,33 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BG8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BI8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="2"/>
@@ -1777,33 +1774,33 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="Q9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" t="s">
         <v>74</v>
       </c>
       <c r="U9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BG9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BI9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="2"/>
@@ -1812,31 +1809,28 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S10" s="5"/>
-      <c r="T10" t="s">
-        <v>76</v>
-      </c>
       <c r="U10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BG10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BI10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1844,25 +1838,25 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S11" s="5"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BG11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BI11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1870,25 +1864,25 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S12" s="5"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BG12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BI12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1899,13 +1893,13 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BG13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1916,13 +1910,13 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BG14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1933,10 +1927,10 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1947,10 +1941,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="17" spans="6:24">
+    <row r="17" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1961,10 +1955,10 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="18" spans="6:24">
+    <row r="18" spans="6:24" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1975,12 +1969,12 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="6:24" x14ac:dyDescent="0.2">
+      <c r="X19" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="6:24">
-      <c r="X19" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1996,9 +1990,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -2014,9 +2008,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
